--- a/OfficeAddIns/ExcelAddIns/BananaFunctions/BananaFunctions.xlsx
+++ b/OfficeAddIns/ExcelAddIns/BananaFunctions/BananaFunctions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/GitHub/BananaInternal/officeaddin/ExcelAddIns/msofficeplugin2/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/GitHub/BananaAccounting/General/OfficeAddIns/ExcelAddIns/BananaFunctions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8808AC-215A-F747-AB28-93C0086154C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB066DD-B1A2-1B4B-8734-6148CC45DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44660" yWindow="-8660" windowWidth="36440" windowHeight="26400" activeTab="1" xr2:uid="{7CD0CF11-E1DD-4960-AAB1-E4907A69624B}"/>
+    <workbookView xWindow="44660" yWindow="-8660" windowWidth="36440" windowHeight="26400" xr2:uid="{7CD0CF11-E1DD-4960-AAB1-E4907A69624B}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="2" r:id="rId1"/>
@@ -730,7 +730,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -835,6 +835,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -846,12 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1235,8 +1232,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1257,7 @@
       </c>
       <c r="E3" s="1" t="str">
         <f>IF(C8="","Banana not open, file not open or WebServer not active","Banana Connection OK")</f>
-        <v>Banana Connection OK</v>
+        <v>Banana not open, file not open or WebServer not active</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -1272,7 +1269,7 @@
       </c>
       <c r="E4" s="1" t="str">
         <f>IF(C9="","Banana not open, file not open or WebServer not active","Banana Connection OK")</f>
-        <v>Banana Connection OK</v>
+        <v>Banana not open, file not open or WebServer not active</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1291,7 +1288,7 @@
       </c>
       <c r="C8" s="1" t="str" cm="1">
         <f t="array" ref="C8">_xldudf_BA_FILENAME(C3)</f>
-        <v>company-2024.ac2</v>
+        <v/>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -1303,7 +1300,7 @@
       </c>
       <c r="C9" s="1" t="str" cm="1">
         <f t="array" ref="C9">_xldudf_BA_FILENAME(C4)</f>
-        <v>company-2023.ac2</v>
+        <v/>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -1568,7 +1565,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1589,12 +1586,12 @@
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="62" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1602,13 +1599,13 @@
       <c r="E5" s="60"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" s="60" t="str" cm="1">
@@ -1638,22 +1635,22 @@
       <c r="E9" s="60"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="61" cm="1">
+      <c r="E11" s="61" t="e" cm="1">
         <f t="array" ref="E11">_xldudf_BA_STARTPERIOD(File0)</f>
-        <v>45292</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1663,9 +1660,9 @@
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="61" cm="1">
+      <c r="E12" s="61" t="e" cm="1">
         <f t="array" ref="E12">_xldudf_BA_STARTPERIOD(File0,A12)</f>
-        <v>45292</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1675,63 +1672,63 @@
       <c r="B13" s="57"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="61" cm="1">
+      <c r="E13" s="61" t="e" cm="1">
         <f t="array" ref="E13">_xldudf_BA_STARTPERIOD(File0, A13)</f>
-        <v>45383</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E14" s="60"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="61" cm="1">
+      <c r="E16" s="61" t="e" cm="1">
         <f t="array" ref="E16">_xldudf_BA_ENDPERIOD(File0)</f>
-        <v>45657</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="61" cm="1">
+      <c r="E17" s="61" t="e" cm="1">
         <f t="array" ref="E17">_xldudf_BA_ENDPERIOD(File0,A17)</f>
-        <v>45322</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="61" cm="1">
+      <c r="E18" s="61" t="e" cm="1">
         <f t="array" ref="E18">_xldudf_BA_ENDPERIOD(File0,A18)</f>
-        <v>45473</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E19" s="60"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="60" t="str" cm="1">
+      <c r="E21" s="60" cm="1">
         <f t="array" ref="E21">_xldudf_BA_INFO(File0, "Base", "HeaderLeft")</f>
-        <v>Sibex Ltd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1741,9 +1738,9 @@
       <c r="B22" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="60" t="str" cm="1">
+      <c r="E22" s="60" cm="1">
         <f t="array" ref="E22">_xldudf_BA_INFO(File0, A22,B22)</f>
-        <v>Example of Double-Entry Accounting with VAT</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1753,9 +1750,9 @@
       <c r="B23" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="60" t="str" cm="1">
+      <c r="E23" s="60" cm="1">
         <f t="array" ref="E23">_xldudf_BA_INFO(File0, A23,B23)</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,9 +1762,9 @@
       <c r="B24" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="61" cm="1">
+      <c r="E24" s="61" t="e" cm="1">
         <f t="array" ref="E24">_xldudf_BA_INFO(File0, A24,B24)</f>
-        <v>45292</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1777,36 +1774,36 @@
       <c r="B25" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="60" t="str" cm="1">
+      <c r="E25" s="60" cm="1">
         <f t="array" ref="E25">_xldudf_BA_INFO(File0, A25, B25)</f>
-        <v>EUR</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E26" s="60"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="60" t="str" cm="1">
+      <c r="E28" s="60" cm="1">
         <f t="array" ref="E28">_xldudf_BA_ACCOUNTDESCRIPTION(File0, "1000")</f>
-        <v xml:space="preserve">Cash </v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="60" t="str" cm="1">
+      <c r="E29" s="60" cm="1">
         <f t="array" ref="E29">_xldudf_BA_ACCOUNTDESCRIPTION(File0, A29)</f>
-        <v>Current Assets</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1816,33 +1813,33 @@
       <c r="B30" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="60" t="str" cm="1">
+      <c r="E30" s="60" cm="1">
         <f t="array" ref="E30">_xldudf_BA_ACCOUNTDESCRIPTION(File0, A30,B30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="60" cm="1">
+      <c r="E33" s="60" t="e" cm="1">
         <f t="array" ref="E33">_xldudf_BA_AMOUNT(File0, "1000")</f>
-        <v>31940</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="60" cm="1">
+      <c r="E34" s="60" t="e" cm="1">
         <f t="array" ref="E34">_xldudf_BA_AMOUNT(File0, "1000", "2024-01-01/2024-12-31")</f>
-        <v>31940</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,13 +1852,13 @@
       <c r="C35" s="58">
         <v>45657</v>
       </c>
-      <c r="D35" s="66" t="str" cm="1">
+      <c r="D35" s="57" t="str" cm="1">
         <f t="array" ref="D35">_xldudf_BA_CREATEPERIOD(B35,C35)</f>
         <v>2024-01-01/2024-12-31</v>
       </c>
-      <c r="E35" s="60" cm="1">
+      <c r="E35" s="60" t="e" cm="1">
         <f t="array" ref="E35">_xldudf_BA_AMOUNT(File0, A35, D35)</f>
-        <v>31940</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1871,39 +1868,39 @@
       <c r="B36" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="60" cm="1">
+      <c r="E36" s="60" t="e" cm="1">
         <f t="array" ref="E36">_xldudf_BA_AMOUNT(File0, A36,B36)</f>
-        <v>29140</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="60" cm="1">
+      <c r="E39" s="60" t="e" cm="1">
         <f t="array" ref="E39">_xldudf_BA_BALANCE(File0, "1000", "2024-01-01/2024-12-31")</f>
-        <v>31940</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="55">
         <v>1000</v>
       </c>
-      <c r="E40" s="60" cm="1">
+      <c r="E40" s="60" t="e" cm="1">
         <f t="array" ref="E40">_xldudf_BA_BALANCE(File0, A40)</f>
-        <v>31940</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="55">
         <v>1000</v>
       </c>
@@ -1917,9 +1914,9 @@
         <f t="array" ref="D41">_xldudf_BA_CREATEPERIOD(B41,C41)</f>
         <v>2024-01-01/2024-12-31</v>
       </c>
-      <c r="E41" s="60" cm="1">
+      <c r="E41" s="60" t="e" cm="1">
         <f t="array" ref="E41">_xldudf_BA_BALANCE(File0,A41,D41)</f>
-        <v>31940</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1933,54 +1930,54 @@
         <v>45657</v>
       </c>
       <c r="D42" s="58"/>
-      <c r="E42" s="60" cm="1">
+      <c r="E42" s="60" t="e" cm="1">
         <f t="array" ref="E42">_xldudf_BA_BALANCE(File0, A42,_xldudf_BA_CREATEPERIOD(B42,C42))</f>
-        <v>15158.18</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="60" cm="1">
+      <c r="E43" s="60" t="e" cm="1">
         <f t="array" ref="E43">_xldudf_BA_BALANCE(File0, A43)</f>
-        <v>27758.18</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="60" cm="1">
+      <c r="E44" s="60" t="e" cm="1">
         <f t="array" ref="E44">_xldudf_BA_BALANCE(File0, A44)</f>
-        <v>34758.18</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="60" cm="1">
+      <c r="E45" s="60" t="e" cm="1">
         <f t="array" ref="E45">_xldudf_BA_BALANCE(File0, A45)</f>
-        <v>34631.81</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E46" s="60"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="60" cm="1">
+      <c r="E48" s="60" t="e" cm="1">
         <f t="array" ref="E48">_xldudf_BA_OPENING(File0, "1000")</f>
-        <v>17570</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1990,9 +1987,9 @@
       <c r="B49" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="60" cm="1">
+      <c r="E49" s="60" t="e" cm="1">
         <f t="array" ref="E49">_xldudf_BA_OPENING(File0, A49, B49)</f>
-        <v>17570</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2002,27 +1999,27 @@
       <c r="B50" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="60" cm="1">
+      <c r="E50" s="60" t="e" cm="1">
         <f t="array" ref="E50">_xldudf_BA_OPENING(File0, A50, B50)</f>
-        <v>31940</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="60" cm="1">
+      <c r="E53" s="60" t="e" cm="1">
         <f t="array" ref="E53">_xldudf_BA_TOTAL(File0, "4100")</f>
-        <v>-8454.5400000000009</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2032,9 +2029,9 @@
       <c r="B54" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="60" cm="1">
+      <c r="E54" s="60" t="e" cm="1">
         <f t="array" ref="E54">_xldudf_BA_TOTAL(File0, A54, B54)</f>
-        <v>1077.27</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2044,27 +2041,27 @@
       <c r="B55" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="60" cm="1">
+      <c r="E55" s="60" t="e" cm="1">
         <f t="array" ref="E55">_xldudf_BA_TOTAL(File0, A55, B55)</f>
-        <v>-8454.5400000000009</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E58" s="60" cm="1">
+      <c r="E58" s="60" t="e" cm="1">
         <f t="array" ref="E58">_xldudf_BA_INTEREST(File0, "1000", "5")</f>
-        <v>1580.92</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2078,9 +2075,9 @@
         <v>1</v>
       </c>
       <c r="D59" s="56"/>
-      <c r="E59" s="60" cm="1">
+      <c r="E59" s="60" t="e" cm="1">
         <f t="array" ref="E59">_xldudf_BA_INTEREST(File0,A59,B59,C59)</f>
-        <v>116.33</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2092,9 +2089,9 @@
       </c>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
-      <c r="E60" s="60" cm="1">
+      <c r="E60" s="60" t="e" cm="1">
         <f t="array" ref="E60">_xldudf_BA_INTEREST(File0,A60,B60)</f>
-        <v>0.96</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2108,27 +2105,27 @@
         <v>1</v>
       </c>
       <c r="D61" s="56"/>
-      <c r="E61" s="60" cm="1">
+      <c r="E61" s="60" t="e" cm="1">
         <f t="array" ref="E61">_xldudf_BA_INTEREST(File0, A61,B61,C61)</f>
-        <v>0.96</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E62" s="60"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="60" cm="1">
+      <c r="E64" s="60" t="e" cm="1">
         <f t="array" ref="E64">_xldudf_BA_VATBALANCE(File0, "S10", "taxable")</f>
-        <v>-8454.5400000000009</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2138,9 +2135,9 @@
       <c r="B65" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="60" cm="1">
+      <c r="E65" s="60" t="e" cm="1">
         <f t="array" ref="E65">_xldudf_BA_VATBALANCE(File0,A65,B65)</f>
-        <v>-8454.5400000000009</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2150,27 +2147,27 @@
       <c r="B66" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="60" cm="1">
+      <c r="E66" s="60" t="e" cm="1">
         <f t="array" ref="E66">_xldudf_BA_VATBALANCE(File0, A66, B66)</f>
-        <v>-845.46</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="60" t="str" cm="1">
+      <c r="E69" s="60" cm="1">
         <f t="array" ref="E69">_xldudf_BA_VATDESCRIPTION(File0, "S10")</f>
-        <v>Sales at 10%</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2180,33 +2177,33 @@
       <c r="B70" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="60" t="str" cm="1">
+      <c r="E70" s="60" cm="1">
         <f t="array" ref="E70">_xldudf_BA_VATDESCRIPTION(File0,A70,B70)</f>
-        <v>10.00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E71" s="60"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E73" s="60" cm="1">
+      <c r="E73" s="60" t="e" cm="1">
         <f t="array" ref="E73">_xldudf_BA_BUDGETAMOUNT(File0, "1000")</f>
-        <v>127370</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="60" cm="1">
+      <c r="E74" s="60" t="e" cm="1">
         <f t="array" ref="E74">_xldudf_BA_BUDGETAMOUNT(File0, "1000", "2024-01-01/2024-12-31")</f>
-        <v>127370</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,9 +2217,9 @@
         <v>45657</v>
       </c>
       <c r="D75" s="58"/>
-      <c r="E75" s="60" cm="1">
+      <c r="E75" s="60" t="e" cm="1">
         <f t="array" ref="E75">_xldudf_BA_BUDGETAMOUNT(File0, A75, _xldudf_BA_CREATEPERIOD(B75,C75))</f>
-        <v>127370</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2232,36 +2229,36 @@
       <c r="B76" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="60" cm="1">
+      <c r="E76" s="60" t="e" cm="1">
         <f t="array" ref="E76">_xldudf_BA_BUDGETAMOUNT(File0, A76,B76)</f>
-        <v>26720</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E77" s="60"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E79" s="60" cm="1">
+      <c r="E79" s="60" t="e" cm="1">
         <f t="array" ref="E79">_xldudf_BA_BUDGETBALANCE(File0, "1000", "2024-01-01/2024-12-31")</f>
-        <v>127370</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="55">
         <v>1000</v>
       </c>
-      <c r="E80" s="60" cm="1">
+      <c r="E80" s="60" t="e" cm="1">
         <f t="array" ref="E80">_xldudf_BA_BUDGETBALANCE(File0, A80)</f>
-        <v>127370</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2275,63 +2272,63 @@
         <v>45657</v>
       </c>
       <c r="D81" s="58"/>
-      <c r="E81" s="60" cm="1">
+      <c r="E81" s="60" t="e" cm="1">
         <f t="array" ref="E81">_xldudf_BA_BUDGETBALANCE(File0, A81, _xldudf_BA_CREATEPERIOD(B81,C81))</f>
-        <v>127370</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="E82" s="60" cm="1">
+      <c r="E82" s="60" t="e" cm="1">
         <f t="array" ref="E82">_xldudf_BA_BUDGETBALANCE(File0, A82,_xldudf_BA_CREATEPERIOD(B81,C81))</f>
-        <v>114870</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E83" s="60" cm="1">
+      <c r="E83" s="60" t="e" cm="1">
         <f t="array" ref="E83">_xldudf_BA_BUDGETBALANCE(File0, A83)</f>
-        <v>126870</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="60" cm="1">
+      <c r="E84" s="60" t="e" cm="1">
         <f t="array" ref="E84">_xldudf_BA_BUDGETBALANCE(File0, A84)</f>
-        <v>133870</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E85" s="60" cm="1">
+      <c r="E85" s="60" t="e" cm="1">
         <f t="array" ref="E85">_xldudf_BA_BUDGETBALANCE(File0, A85)</f>
-        <v>123590.94</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E86" s="60"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E88" s="60" cm="1">
+      <c r="E88" s="60" t="e" cm="1">
         <f t="array" ref="E88">_xldudf_BA_BUDGETOPENING(File0, "1000")</f>
-        <v>17570</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2341,9 +2338,9 @@
       <c r="B89" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="60" cm="1">
+      <c r="E89" s="60" t="e" cm="1">
         <f t="array" ref="E89">_xldudf_BA_BUDGETOPENING(File0, A89, B89)</f>
-        <v>17570</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2353,27 +2350,27 @@
       <c r="B90" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E90" s="60" cm="1">
+      <c r="E90" s="60" t="e" cm="1">
         <f t="array" ref="E90">_xldudf_BA_BUDGETOPENING(File0, A90, B90)</f>
-        <v>45020</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E91" s="60"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E93" s="60" cm="1">
+      <c r="E93" s="60" t="e" cm="1">
         <f t="array" ref="E93">_xldudf_BA_BUDGETTOTAL(File0, "4100")</f>
-        <v>-102272.76</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2383,9 +2380,9 @@
       <c r="B94" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E94" s="60" cm="1">
+      <c r="E94" s="60" t="e" cm="1">
         <f t="array" ref="E94">_xldudf_BA_BUDGETTOTAL(File0, A94, B94)</f>
-        <v>1100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2395,27 +2392,27 @@
       <c r="B95" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E95" s="60" cm="1">
+      <c r="E95" s="60" t="e" cm="1">
         <f t="array" ref="E95">_xldudf_BA_BUDGETTOTAL(File0, A95, B95)</f>
-        <v>-25568.19</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E96" s="60"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="62" t="s">
+      <c r="A97" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E98" s="60" cm="1">
+      <c r="E98" s="60" t="e" cm="1">
         <f t="array" ref="E98">_xldudf_BA_BUDGETINTEREST(File0, "1000", "5")</f>
-        <v>3769.95</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2429,9 +2426,9 @@
         <v>1</v>
       </c>
       <c r="D99" s="56"/>
-      <c r="E99" s="60" cm="1">
+      <c r="E99" s="60" t="e" cm="1">
         <f t="array" ref="E99">_xldudf_BA_BUDGETINTEREST(File0,A99,B99,C99)</f>
-        <v>105.21</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2443,9 +2440,9 @@
       </c>
       <c r="C100" s="56"/>
       <c r="D100" s="56"/>
-      <c r="E100" s="60" cm="1">
+      <c r="E100" s="60" t="e" cm="1">
         <f t="array" ref="E100">_xldudf_BA_BUDGETINTEREST(File0,A100,B100)</f>
-        <v>50.14</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2459,27 +2456,27 @@
         <v>1</v>
       </c>
       <c r="D101" s="56"/>
-      <c r="E101" s="60" cm="1">
+      <c r="E101" s="60" t="e" cm="1">
         <f t="array" ref="E101">_xldudf_BA_BUDGETINTEREST(File0, A101,B101,C101)</f>
-        <v>4.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E102" s="60"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="62" t="s">
+      <c r="A103" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="62"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E104" s="60" t="str" cm="1">
+      <c r="E104" s="60" cm="1">
         <f t="array" ref="E104">_xldudf_BA_CELLVALUE(File0, "Accounts", 2, "Description")</f>
-        <v>ASSETS</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2493,9 +2490,9 @@
         <v>129</v>
       </c>
       <c r="D105" s="56"/>
-      <c r="E105" s="60" t="str" cm="1">
+      <c r="E105" s="60" cm="1">
         <f t="array" ref="E105">_xldudf_BA_CELLVALUE(File0, A105,B105,C105)</f>
-        <v xml:space="preserve">Cash </v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2509,27 +2506,27 @@
         <v>131</v>
       </c>
       <c r="D106" s="56"/>
-      <c r="E106" s="60" t="str" cm="1">
+      <c r="E106" s="60" cm="1">
         <f t="array" ref="E106">_xldudf_BA_CELLVALUE(File0, A106,B106,C106)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E107" s="60"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E109" s="60" cm="1">
+      <c r="E109" s="60" t="e" cm="1">
         <f t="array" ref="E109">_xldudf_BA_CELLAMOUNT(File0, "Accounts", 3, "Opening")</f>
-        <v>17570</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2543,9 +2540,9 @@
         <v>133</v>
       </c>
       <c r="D110" s="56"/>
-      <c r="E110" s="60" cm="1">
+      <c r="E110" s="60" t="e" cm="1">
         <f t="array" ref="E110">_xldudf_BA_CELLAMOUNT(File0,A110,B110,C110)</f>
-        <v>17570</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2559,13 +2556,21 @@
         <v>35</v>
       </c>
       <c r="D111" s="56"/>
-      <c r="E111" s="60" cm="1">
+      <c r="E111" s="60" t="e" cm="1">
         <f t="array" ref="E111">_xldudf_BA_CELLAMOUNT(File0,A111,B111,C111)</f>
-        <v>34758.18</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A97:E97"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A10:E10"/>
@@ -2577,14 +2582,6 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A97:E97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2606,16 +2603,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="str" cm="1">
+      <c r="B2" s="11" cm="1">
         <f t="array" ref="B2">_xldudf_BA_INFO( File0,"Base","HeaderLeft")</f>
-        <v>Sibex Ltd</v>
+        <v>0</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="str" cm="1">
+      <c r="B3" s="11" cm="1">
         <f t="array" ref="B3">_xldudf_BA_INFO( File0,"Base","HeaderRight")</f>
-        <v>Example of Double-Entry Accounting with VAT</v>
+        <v>0</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -2627,183 +2624,183 @@
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="24" cm="1">
+      <c r="C5" s="24" t="e" cm="1">
         <f t="array" ref="C5">_xldudf_BA_INFO(File0, "AccountingDataBase","ClosureDate")</f>
-        <v>45657</v>
-      </c>
-      <c r="D5" s="25" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="25" t="e" cm="1">
         <f t="array" ref="D5">_xldudf_BA_INFO( File1,"AccountingDataBase","ClosureDate")</f>
-        <v>45291</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14" t="str" cm="1">
+      <c r="B6" s="14" cm="1">
         <f t="array" ref="B6">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A6)</f>
-        <v>Cash</v>
-      </c>
-      <c r="C6" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="e" cm="1">
         <f t="array" ref="C6">_xldudf_BA_AMOUNT(File0,$A6)</f>
-        <v>17758.18</v>
-      </c>
-      <c r="D6" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="15" t="e" cm="1">
         <f t="array" ref="D6">_xldudf_BA_AMOUNT(File1,$A6)</f>
-        <v>19070</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="14" t="str" cm="1">
+      <c r="B7" s="14" cm="1">
         <f t="array" ref="B7">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A7)</f>
-        <v>Accounts Receivable</v>
-      </c>
-      <c r="C7" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="e" cm="1">
         <f t="array" ref="C7">_xldudf_BA_AMOUNT(File0,$A7)</f>
-        <v>10000</v>
-      </c>
-      <c r="D7" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="15" t="e" cm="1">
         <f t="array" ref="D7">_xldudf_BA_AMOUNT(File1,$A7)</f>
-        <v>10000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14" t="str" cm="1">
+      <c r="B8" s="14" cm="1">
         <f t="array" ref="B8">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A8)</f>
-        <v>Inventory</v>
-      </c>
-      <c r="C8" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="e" cm="1">
         <f t="array" ref="C8">_xldudf_BA_AMOUNT(File0,$A8)</f>
-        <v>7000</v>
-      </c>
-      <c r="D8" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="15" t="e" cm="1">
         <f t="array" ref="D8">_xldudf_BA_AMOUNT(File1,$A8)</f>
-        <v>7000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="14" t="str" cm="1">
+      <c r="B9" s="14" cm="1">
         <f t="array" ref="B9">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A9)</f>
-        <v>Prepaid Expenses</v>
-      </c>
-      <c r="C9" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="e" cm="1">
         <f t="array" ref="C9">_xldudf_BA_AMOUNT(File0,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="15" t="e" cm="1">
         <f t="array" ref="D9">_xldudf_BA_AMOUNT(File1,$A9)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="14" t="str" cm="1">
+      <c r="B10" s="14" cm="1">
         <f t="array" ref="B10">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A10)</f>
-        <v>Current Assets</v>
-      </c>
-      <c r="C10" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="e" cm="1">
         <f t="array" ref="C10">_xldudf_BA_AMOUNT(File0,$A10)</f>
-        <v>34758.18</v>
-      </c>
-      <c r="D10" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="15" t="e" cm="1">
         <f t="array" ref="D10">_xldudf_BA_AMOUNT(File1,$A10)</f>
-        <v>36070</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="14" t="str" cm="1">
+      <c r="B11" s="14" cm="1">
         <f t="array" ref="B11">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A11)</f>
-        <v>Equipment</v>
-      </c>
-      <c r="C11" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="e" cm="1">
         <f t="array" ref="C11">_xldudf_BA_AMOUNT(File0,$A11)</f>
-        <v>35000</v>
-      </c>
-      <c r="D11" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="15" t="e" cm="1">
         <f t="array" ref="D11">_xldudf_BA_AMOUNT(File1,$A11)</f>
-        <v>35000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="14" t="str" cm="1">
+      <c r="B12" s="14" cm="1">
         <f t="array" ref="B12">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A12)</f>
-        <v>Real Estate</v>
-      </c>
-      <c r="C12" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="e" cm="1">
         <f t="array" ref="C12">_xldudf_BA_AMOUNT(File0,$A12)</f>
-        <v>100000</v>
-      </c>
-      <c r="D12" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="15" t="e" cm="1">
         <f t="array" ref="D12">_xldudf_BA_AMOUNT(File1,$A12)</f>
-        <v>100000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="14" t="str" cm="1">
+      <c r="B13" s="14" cm="1">
         <f t="array" ref="B13">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A13)</f>
-        <v>Equipment</v>
-      </c>
-      <c r="C13" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="e" cm="1">
         <f t="array" ref="C13">_xldudf_BA_AMOUNT(File0,$A13)</f>
-        <v>35000</v>
-      </c>
-      <c r="D13" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="15" t="e" cm="1">
         <f t="array" ref="D13">_xldudf_BA_AMOUNT(File1,$A13)</f>
-        <v>35000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14" t="str" cm="1">
+      <c r="B14" s="14" cm="1">
         <f t="array" ref="B14">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A14)</f>
-        <v>Fixed Assets</v>
-      </c>
-      <c r="C14" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="e" cm="1">
         <f t="array" ref="C14">_xldudf_BA_AMOUNT(File0,$A14)</f>
-        <v>135000</v>
-      </c>
-      <c r="D14" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="15" t="e" cm="1">
         <f t="array" ref="D14">_xldudf_BA_AMOUNT(File1,$A14)</f>
-        <v>135000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="16" t="str" cm="1">
+      <c r="B15" s="16" cm="1">
         <f t="array" ref="B15">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A15)</f>
-        <v>Total ASSETS</v>
-      </c>
-      <c r="C15" s="27" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="27" t="e" cm="1">
         <f t="array" ref="C15">_xldudf_BA_AMOUNT(File0,$A15)</f>
-        <v>169758.18</v>
-      </c>
-      <c r="D15" s="28" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="28" t="e" cm="1">
         <f t="array" ref="D15">_xldudf_BA_AMOUNT(File1,$A15)</f>
-        <v>171070</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,68 +2813,68 @@
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="14" t="str" cm="1">
+      <c r="B17" s="14" cm="1">
         <f t="array" ref="B17">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A17)</f>
-        <v>Current Liabilities</v>
-      </c>
-      <c r="C17" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="e" cm="1">
         <f t="array" ref="C17">_xldudf_BA_AMOUNT(File0,$A17)</f>
-        <v>126.37</v>
-      </c>
-      <c r="D17" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="15" t="e" cm="1">
         <f t="array" ref="D17">_xldudf_BA_AMOUNT(File1,$A17)</f>
-        <v>1551.82</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="14" t="str" cm="1">
+      <c r="B18" s="14" cm="1">
         <f t="array" ref="B18">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A18)</f>
-        <v>Long-term Liabilities</v>
-      </c>
-      <c r="C18" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="e" cm="1">
         <f t="array" ref="C18">_xldudf_BA_AMOUNT(File0,$A18)</f>
-        <v>80000</v>
-      </c>
-      <c r="D18" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="15" t="e" cm="1">
         <f t="array" ref="D18">_xldudf_BA_AMOUNT(File1,$A18)</f>
-        <v>80000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="str" cm="1">
+      <c r="B19" s="14" cm="1">
         <f t="array" ref="B19">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A19)</f>
-        <v>Shareholders' Equity</v>
-      </c>
-      <c r="C19" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="e" cm="1">
         <f t="array" ref="C19">_xldudf_BA_AMOUNT(File0,$A19)</f>
-        <v>89631.81</v>
-      </c>
-      <c r="D19" s="21" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="21" t="e" cm="1">
         <f t="array" ref="D19">_xldudf_BA_AMOUNT(File1,$A19)</f>
-        <v>89518.18</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="16" t="str" cm="1">
+      <c r="B20" s="16" cm="1">
         <f t="array" ref="B20">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A20)</f>
-        <v>Total LIABILITIES</v>
-      </c>
-      <c r="C20" s="27" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="27" t="e" cm="1">
         <f t="array" ref="C20">_xldudf_BA_AMOUNT(File0,$A20)</f>
-        <v>169758.18</v>
-      </c>
-      <c r="D20" s="28" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="28" t="e" cm="1">
         <f t="array" ref="D20">_xldudf_BA_AMOUNT(File1,$A20)</f>
-        <v>171070</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,30 +2897,30 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="24" cm="1">
+      <c r="C24" s="24" t="e" cm="1">
         <f t="array" ref="C24">_xldudf_BA_INFO(File0,"AccountingDataBase","ClosureDate")</f>
-        <v>45657</v>
-      </c>
-      <c r="D24" s="25" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="25" t="e" cm="1">
         <f t="array" ref="D24">_xldudf_BA_INFO( File1,"AccountingDataBase","ClosureDate")</f>
-        <v>45291</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="16" t="str" cm="1">
+      <c r="B25" s="16" cm="1">
         <f t="array" ref="B25">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A25)</f>
-        <v>Total INCOME</v>
-      </c>
-      <c r="C25" s="17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17" t="e" cm="1">
         <f t="array" ref="C25">_xldudf_BA_AMOUNT(File0,$A25)</f>
-        <v>8454.5400000000009</v>
-      </c>
-      <c r="D25" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="20" t="e" cm="1">
         <f t="array" ref="D25">_xldudf_BA_AMOUNT(File1,$A25)</f>
-        <v>9545.4500000000007</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,153 +2933,153 @@
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="16" t="str" cm="1">
+      <c r="B27" s="16" cm="1">
         <f t="array" ref="B27">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A27)</f>
-        <v>Cost Of Revenue</v>
-      </c>
-      <c r="C27" s="17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17" t="e" cm="1">
         <f t="array" ref="C27">_xldudf_BA_AMOUNT(File0,$A27)</f>
-        <v>4818.18</v>
-      </c>
-      <c r="D27" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D27" s="20" t="e" cm="1">
         <f t="array" ref="D27">_xldudf_BA_AMOUNT(File1,$A27)</f>
-        <v>3636.36</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="14" t="str" cm="1">
+      <c r="B28" s="14" cm="1">
         <f t="array" ref="B28">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A28)</f>
-        <v>Salary</v>
-      </c>
-      <c r="C28" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6" t="e" cm="1">
         <f t="array" ref="C28">_xldudf_BA_AMOUNT(File0,$A28)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="15" t="e" cm="1">
         <f t="array" ref="D28">_xldudf_BA_AMOUNT(File1,$A28)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="14" t="str" cm="1">
+      <c r="B29" s="14" cm="1">
         <f t="array" ref="B29">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A29)</f>
-        <v>General And Administrative</v>
-      </c>
-      <c r="C29" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="e" cm="1">
         <f t="array" ref="C29">_xldudf_BA_AMOUNT(File0,$A29)</f>
-        <v>3522.73</v>
-      </c>
-      <c r="D29" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="15" t="e" cm="1">
         <f t="array" ref="D29">_xldudf_BA_AMOUNT(File1,$A29)</f>
-        <v>3390.91</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="14" t="str" cm="1">
+      <c r="B30" s="14" cm="1">
         <f t="array" ref="B30">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A30)</f>
-        <v>Financial expenses</v>
-      </c>
-      <c r="C30" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6" t="e" cm="1">
         <f t="array" ref="C30">_xldudf_BA_AMOUNT(File0,$A30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="21" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D30" s="21" t="e" cm="1">
         <f t="array" ref="D30">_xldudf_BA_AMOUNT(File1,$A30)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="16" t="str" cm="1">
+      <c r="B31" s="16" cm="1">
         <f t="array" ref="B31">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A31)</f>
-        <v>Operating Expenses</v>
-      </c>
-      <c r="C31" s="17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17" t="e" cm="1">
         <f t="array" ref="C31">_xldudf_BA_AMOUNT(File0,$A31)</f>
-        <v>3522.73</v>
-      </c>
-      <c r="D31" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="20" t="e" cm="1">
         <f t="array" ref="D31">_xldudf_BA_AMOUNT(File1,$A31)</f>
-        <v>3390.91</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="14" t="str" cm="1">
+      <c r="B32" s="14" cm="1">
         <f t="array" ref="B32">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A32)</f>
-        <v>Amortisation</v>
-      </c>
-      <c r="C32" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6" t="e" cm="1">
         <f t="array" ref="C32">_xldudf_BA_AMOUNT(File0,$A32)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="15" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="15" t="e" cm="1">
         <f t="array" ref="D32">_xldudf_BA_AMOUNT(File1,$A32)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="14" t="str" cm="1">
+      <c r="B33" s="14" cm="1">
         <f t="array" ref="B33">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A33)</f>
-        <v>Taxes</v>
-      </c>
-      <c r="C33" s="6" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6" t="e" cm="1">
         <f t="array" ref="C33">_xldudf_BA_AMOUNT(File0,$A33)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="21" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="21" t="e" cm="1">
         <f t="array" ref="D33">_xldudf_BA_AMOUNT(File1,$A33)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="16" t="str" cm="1">
+      <c r="B34" s="16" cm="1">
         <f t="array" ref="B34">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A34)</f>
-        <v>Total EXPENSES</v>
-      </c>
-      <c r="C34" s="17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17" t="e" cm="1">
         <f t="array" ref="C34">_xldudf_BA_AMOUNT(File0,$A34)</f>
-        <v>8340.91</v>
-      </c>
-      <c r="D34" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" s="20" t="e" cm="1">
         <f t="array" ref="D34">_xldudf_BA_AMOUNT(File1,$A34)</f>
-        <v>7027.27</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="16" t="str" cm="1">
+      <c r="B35" s="16" cm="1">
         <f t="array" ref="B35">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A35)</f>
-        <v>Profit(-) Loss(+) from Profit &amp; Loss Statement</v>
-      </c>
-      <c r="C35" s="17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17" t="e" cm="1">
         <f t="array" ref="C35">_xldudf_BA_AMOUNT(File0,$A35)</f>
-        <v>113.63</v>
-      </c>
-      <c r="D35" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D35" s="20" t="e" cm="1">
         <f t="array" ref="D35">_xldudf_BA_AMOUNT(File1,$A35)</f>
-        <v>2518.1799999999998</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -3107,27 +3104,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="str" cm="1">
+      <c r="A2" s="11" cm="1">
         <f t="array" ref="A2">_xldudf_BA_INFO(File0, "Base","HeaderLeft")</f>
-        <v>Sibex Ltd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="29" cm="1">
+      <c r="B3" s="29" t="e" cm="1">
         <f t="array" ref="B3">_xldudf_BA_STARTPERIOD(File0)</f>
-        <v>45292</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="29" cm="1">
+      <c r="B4" s="29" t="e" cm="1">
         <f t="array" ref="B4">_xldudf_BA_ENDPERIOD(File0)</f>
-        <v>45657</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,232 +3182,232 @@
       <c r="A9" s="40">
         <v>3220</v>
       </c>
-      <c r="B9" s="40" t="str" cm="1">
+      <c r="B9" s="40" cm="1">
         <f t="array" ref="B9">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A9)</f>
-        <v>Car expenses</v>
-      </c>
-      <c r="C9" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="41" t="e" cm="1">
         <f t="array" ref="C9">_xldudf_BA_AMOUNT(File0,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="42" t="e">
         <f>$C9*D$8</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="42" t="e">
         <f t="shared" ref="E9:G16" si="0">$C9*E$8</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>3230</v>
       </c>
-      <c r="B10" s="40" t="str" cm="1">
+      <c r="B10" s="40" cm="1">
         <f t="array" ref="B10">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A10)</f>
-        <v>Other insurances</v>
-      </c>
-      <c r="C10" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="41" t="e" cm="1">
         <f t="array" ref="C10">_xldudf_BA_AMOUNT(File0,$A10)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="42" t="e">
         <f t="shared" ref="D10:D16" si="1">$C10*D$8</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>3240</v>
       </c>
-      <c r="B11" s="40" t="str" cm="1">
+      <c r="B11" s="40" cm="1">
         <f t="array" ref="B11">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A11)</f>
-        <v>Fees</v>
-      </c>
-      <c r="C11" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="41" t="e" cm="1">
         <f t="array" ref="C11">_xldudf_BA_AMOUNT(File0,$A11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="42" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>3250</v>
       </c>
-      <c r="B12" s="40" t="str" cm="1">
+      <c r="B12" s="40" cm="1">
         <f t="array" ref="B12">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A12)</f>
-        <v>Electricity</v>
-      </c>
-      <c r="C12" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="41" t="e" cm="1">
         <f t="array" ref="C12">_xldudf_BA_AMOUNT(File0,$A12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="42" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>3260</v>
       </c>
-      <c r="B13" s="40" t="str" cm="1">
+      <c r="B13" s="40" cm="1">
         <f t="array" ref="B13">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A13)</f>
-        <v>Office supplies</v>
-      </c>
-      <c r="C13" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="41" t="e" cm="1">
         <f t="array" ref="C13">_xldudf_BA_AMOUNT(File0,$A13)</f>
-        <v>27.27</v>
-      </c>
-      <c r="D13" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="42" t="e">
         <f t="shared" si="1"/>
-        <v>5.4540000000000006</v>
-      </c>
-      <c r="E13" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>13.635</v>
-      </c>
-      <c r="F13" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>8.1809999999999992</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>3270</v>
       </c>
-      <c r="B14" s="40" t="str" cm="1">
+      <c r="B14" s="40" cm="1">
         <f t="array" ref="B14">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A14)</f>
-        <v>Telephone, Fax</v>
-      </c>
-      <c r="C14" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="41" t="e" cm="1">
         <f t="array" ref="C14">_xldudf_BA_AMOUNT(File0,$A14)</f>
-        <v>345.46</v>
-      </c>
-      <c r="D14" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" s="42" t="e">
         <f t="shared" si="1"/>
-        <v>69.091999999999999</v>
-      </c>
-      <c r="E14" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>172.73</v>
-      </c>
-      <c r="F14" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>103.63799999999999</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>3280</v>
       </c>
-      <c r="B15" s="40" t="str" cm="1">
+      <c r="B15" s="40" cm="1">
         <f t="array" ref="B15">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A15)</f>
-        <v>Mailing fees</v>
-      </c>
-      <c r="C15" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="41" t="e" cm="1">
         <f t="array" ref="C15">_xldudf_BA_AMOUNT(File0,$A15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" s="42" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E15" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>3290</v>
       </c>
-      <c r="B16" s="40" t="str" cm="1">
+      <c r="B16" s="40" cm="1">
         <f t="array" ref="B16">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A16)</f>
-        <v>Advertising</v>
-      </c>
-      <c r="C16" s="41" cm="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="41" t="e" cm="1">
         <f t="array" ref="C16">_xldudf_BA_AMOUNT(File0,$A16)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D16" s="42" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E16" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="42" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="43" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,25 +3415,25 @@
       <c r="B17" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="45" t="e">
         <f>SUM(C9:C16)</f>
-        <v>372.72999999999996</v>
-      </c>
-      <c r="D17" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="45" t="e">
         <f>SUM(D9:D16)</f>
-        <v>74.545999999999992</v>
-      </c>
-      <c r="E17" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="45" t="e">
         <f>SUM(E9:E16)</f>
-        <v>186.36499999999998</v>
-      </c>
-      <c r="F17" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="45" t="e">
         <f>SUM(F9:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="20" t="e">
         <f>SUM(G9:G16)</f>
-        <v>111.81899999999999</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,34 +3461,34 @@
       <c r="B19" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="45" t="e">
         <f>C17-C18</f>
-        <v>72.729999999999961</v>
-      </c>
-      <c r="D19" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="45" t="e">
         <f>D17-D18</f>
-        <v>-25.454000000000008</v>
-      </c>
-      <c r="E19" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="45" t="e">
         <f>E17-E18</f>
-        <v>86.364999999999981</v>
-      </c>
-      <c r="F19" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="45" t="e">
         <f>F17-F18</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="45" t="e">
         <f>G17-G18</f>
-        <v>11.818999999999988</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="49" t="e">
         <f>C17-SUM(D17:G17)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3526,27 +3523,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="str" cm="1">
+      <c r="A1" s="2" cm="1">
         <f t="array" ref="A1">_xldudf_BA_INFO(File0, "Base","HeaderLeft")</f>
-        <v>Sibex Ltd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="29" cm="1">
+      <c r="B2" s="29" t="e" cm="1">
         <f t="array" ref="B2">_xldudf_BA_STARTPERIOD(File0)</f>
-        <v>45292</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="29" cm="1">
+      <c r="B3" s="29" t="e" cm="1">
         <f t="array" ref="B3">_xldudf_BA_ENDPERIOD(File0)</f>
-        <v>45657</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3567,12 +3564,12 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3620,25 +3617,25 @@
       <c r="B9" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="51" cm="1">
+      <c r="C9" s="51" t="e" cm="1">
         <f t="array" ref="C9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;C$8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="51" t="e" cm="1">
         <f t="array" ref="D9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;D$8)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="51" t="e" cm="1">
         <f t="array" ref="E9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;E$8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="51" t="e" cm="1">
         <f t="array" ref="F9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;F$8)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="45" t="e">
         <f>SUM(C9:F9)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3648,25 +3645,25 @@
       <c r="B10" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="51" cm="1">
+      <c r="C10" s="51" t="e" cm="1">
         <f t="array" ref="C10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;C$8)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="51" t="e" cm="1">
         <f t="array" ref="D10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;D$8)</f>
-        <v>4818.18</v>
-      </c>
-      <c r="E10" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="51" t="e" cm="1">
         <f t="array" ref="E10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;E$8)</f>
-        <v>1050</v>
-      </c>
-      <c r="F10" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="51" t="e" cm="1">
         <f t="array" ref="F10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;F$8)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="45" t="e">
         <f>SUM(C10:F10)</f>
-        <v>5868.18</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3676,25 +3673,25 @@
       <c r="B11" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="51" cm="1">
+      <c r="C11" s="51" t="e" cm="1">
         <f t="array" ref="C11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;C$8)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="51" t="e" cm="1">
         <f t="array" ref="D11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;D$8)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="51" t="e" cm="1">
         <f t="array" ref="E11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;E$8)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="51" t="e" cm="1">
         <f t="array" ref="F11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;F$8)</f>
-        <v>2100</v>
-      </c>
-      <c r="G11" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="45" t="e">
         <f>SUM(C11:F11)</f>
-        <v>2100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3704,25 +3701,25 @@
       <c r="B12" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="51" cm="1">
+      <c r="C12" s="51" t="e" cm="1">
         <f t="array" ref="C12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;C$8)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="51" t="e" cm="1">
         <f t="array" ref="D12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;D$8)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="51" t="e" cm="1">
         <f t="array" ref="E12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;E$8)</f>
-        <v>372.73</v>
-      </c>
-      <c r="F12" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="51" t="e" cm="1">
         <f t="array" ref="F12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;F$8)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="45" t="e">
         <f>SUM(C12:F12)</f>
-        <v>372.73</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3730,25 +3727,25 @@
       <c r="B13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="45" t="e">
         <f>SUM(C9:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="45" t="e">
         <f>SUM(D9:D12)</f>
-        <v>4818.18</v>
-      </c>
-      <c r="E13" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="45" t="e">
         <f>SUM(E9:E12)</f>
-        <v>1422.73</v>
-      </c>
-      <c r="F13" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="45" t="e">
         <f>SUM(F9:F12)</f>
-        <v>2100</v>
-      </c>
-      <c r="G13" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="45" t="e">
         <f>SUM(G9:G12)</f>
-        <v>8340.91</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,12 +3776,12 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3834,25 +3831,25 @@
       <c r="B22" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="51" cm="1">
+      <c r="C22" s="51" t="e" cm="1">
         <f t="array" ref="C22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;C$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="51" t="e" cm="1">
         <f t="array" ref="D22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;D$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="51" t="e" cm="1">
         <f t="array" ref="E22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;E$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="51" t="e" cm="1">
         <f t="array" ref="F22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;F$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="45" t="e">
         <f>SUM(C22:F22)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3862,25 +3859,25 @@
       <c r="B23" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="51" cm="1">
+      <c r="C23" s="51" t="e" cm="1">
         <f t="array" ref="C23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;C$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="51" t="e" cm="1">
         <f t="array" ref="D23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;D$21)</f>
-        <v>5909.09</v>
-      </c>
-      <c r="E23" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="51" t="e" cm="1">
         <f t="array" ref="E23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;E$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="51" t="e" cm="1">
         <f t="array" ref="F23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;F$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="45" t="e">
         <f>SUM(C23:F23)</f>
-        <v>5909.09</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3890,25 +3887,25 @@
       <c r="B24" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="51" cm="1">
+      <c r="C24" s="51" t="e" cm="1">
         <f t="array" ref="C24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;C$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="51" t="e" cm="1">
         <f t="array" ref="D24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;D$21)</f>
-        <v>2545.4499999999998</v>
-      </c>
-      <c r="E24" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="51" t="e" cm="1">
         <f t="array" ref="E24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;E$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="51" t="e" cm="1">
         <f t="array" ref="F24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;F$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="45" t="e">
         <f>SUM(C24:F24)</f>
-        <v>2545.4499999999998</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3918,25 +3915,25 @@
       <c r="B25" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="51" cm="1">
+      <c r="C25" s="51" t="e" cm="1">
         <f t="array" ref="C25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;C$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D25" s="51" t="e" cm="1">
         <f t="array" ref="D25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;D$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" s="51" t="e" cm="1">
         <f t="array" ref="E25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;E$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="51" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="51" t="e" cm="1">
         <f t="array" ref="F25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;F$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" s="45" t="e">
         <f>SUM(C25:F25)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.25">
@@ -3944,25 +3941,25 @@
       <c r="B26" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="45" t="e">
         <f>SUM(C22:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D26" s="45" t="e">
         <f>SUM(D22:D25)</f>
-        <v>8454.5400000000009</v>
-      </c>
-      <c r="E26" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="45" t="e">
         <f>SUM(E22:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="45" t="e">
         <f>SUM(F22:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="45" t="e">
         <f>SUM(G22:G25)</f>
-        <v>8454.5400000000009</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">

--- a/OfficeAddIns/ExcelAddIns/BananaFunctions/BananaFunctions.xlsx
+++ b/OfficeAddIns/ExcelAddIns/BananaFunctions/BananaFunctions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/GitHub/BananaAccounting/General/OfficeAddIns/ExcelAddIns/BananaFunctions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB066DD-B1A2-1B4B-8734-6148CC45DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB2A397-E848-AC40-9425-7932A03972BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44660" yWindow="-8660" windowWidth="36440" windowHeight="26400" xr2:uid="{7CD0CF11-E1DD-4960-AAB1-E4907A69624B}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="124">
   <si>
     <t>Gr=1</t>
   </si>
@@ -123,9 +123,6 @@
     <t xml:space="preserve">3. Recalculate spreadsheet </t>
   </si>
   <si>
-    <t>License terms</t>
-  </si>
-  <si>
     <t>Use File0 in the formula for file current year</t>
   </si>
   <si>
@@ -133,39 +130,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' Copyright (C) 2023 Banana.ch SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' Licensed under the Apache License, Version 2.0 (the "License");</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' you may not use this file except in compliance with the License.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' You may obtain a copy of the License at</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' http://www.apache.org/licenses/LICENSE-2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' Unless required by applicable law or agreed to in writing, software</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' distributed under the License is distributed on an "AS IS" BASIS,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' WITHOUT WARRANTIES OR CONDITIONS OF ANY KIND, either express or implied.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' See the License for the specific language governing permissions and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' limitations under the License.</t>
   </si>
   <si>
     <t>https://www.banana.ch/doc/en/node/10018</t>
@@ -730,7 +694,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,7 +713,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1230,7 +1193,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1189D988-AFC5-404B-A641-9E5FEA8C251B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1241,7 +1204,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1253,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>IF(C8="","Banana not open, file not open or WebServer not active","Banana Connection OK")</f>
@@ -1265,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF(C9="","Banana not open, file not open or WebServer not active","Banana Connection OK")</f>
@@ -1291,7 +1254,7 @@
         <v/>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -1303,7 +1266,7 @@
         <v/>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -1382,7 +1345,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
@@ -1391,7 +1354,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1413,150 +1376,12 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" display="' http://www.apache.org/licenses/LICENSE-2.0" xr:uid="{E61CDCA5-9E85-4161-A35D-DC580B3EBB3C}"/>
-    <hyperlink ref="B20" r:id="rId2" xr:uid="{03175919-61C7-4144-B649-6E604C76C769}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{03175919-61C7-4144-B649-6E604C76C769}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1571,1006 +1396,998 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="56"/>
+    <col min="1" max="1" width="18.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
-        <v>95</v>
+      <c r="A1" s="54" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
-        <v>134</v>
+      <c r="A3" s="61" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
-        <v>135</v>
+      <c r="A4" s="61" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E5" s="60"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="60" t="str" cm="1">
+      <c r="E7" s="59" t="str" cm="1">
         <f t="array" ref="E7">_xldudf_BA_CREATEPERIOD(DATEVALUE("01.01.2024"), DATEVALUE("31.12.2024"))</f>
         <v>2024-01-01/2024-12-31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="59">
+      <c r="A8" s="58">
         <v>45292</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="57">
         <v>45657</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="60" t="str" cm="1">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="59" t="str" cm="1">
         <f t="array" ref="E8">_xldudf_BA_CREATEPERIOD(A8,B8)</f>
         <v>2024-01-01/2024-12-31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="A10" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="61" t="e" cm="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="60" t="e" cm="1">
         <f t="array" ref="E11">_xldudf_BA_STARTPERIOD(File0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="61" t="e" cm="1">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="60" t="e" cm="1">
         <f t="array" ref="E12">_xldudf_BA_STARTPERIOD(File0,A12)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="61" t="e" cm="1">
+      <c r="A13" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="60" t="e" cm="1">
         <f t="array" ref="E13">_xldudf_BA_STARTPERIOD(File0, A13)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="60"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
+      <c r="A15" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="61" t="e" cm="1">
+      <c r="E16" s="60" t="e" cm="1">
         <f t="array" ref="E16">_xldudf_BA_ENDPERIOD(File0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="61" t="e" cm="1">
+      <c r="E17" s="60" t="e" cm="1">
         <f t="array" ref="E17">_xldudf_BA_ENDPERIOD(File0,A17)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="61" t="e" cm="1">
+      <c r="A18" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="60" t="e" cm="1">
         <f t="array" ref="E18">_xldudf_BA_ENDPERIOD(File0,A18)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="60"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+      <c r="A20" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="60" cm="1">
+      <c r="E21" s="59" cm="1">
         <f t="array" ref="E21">_xldudf_BA_INFO(File0, "Base", "HeaderLeft")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="55" t="s">
+      <c r="A22" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="60" cm="1">
+      <c r="E22" s="59" cm="1">
         <f t="array" ref="E22">_xldudf_BA_INFO(File0, A22,B22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="60" cm="1">
+      <c r="A23" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="59" cm="1">
         <f t="array" ref="E23">_xldudf_BA_INFO(File0, A23,B23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="61" t="e" cm="1">
+      <c r="A24" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="60" t="e" cm="1">
         <f t="array" ref="E24">_xldudf_BA_INFO(File0, A24,B24)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="60" cm="1">
+      <c r="A25" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="59" cm="1">
         <f t="array" ref="E25">_xldudf_BA_INFO(File0, A25, B25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="60"/>
+      <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="A27" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="60" cm="1">
+      <c r="E28" s="59" cm="1">
         <f t="array" ref="E28">_xldudf_BA_ACCOUNTDESCRIPTION(File0, "1000")</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="60" cm="1">
+      <c r="A29" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="59" cm="1">
         <f t="array" ref="E29">_xldudf_BA_ACCOUNTDESCRIPTION(File0, A29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="55">
+      <c r="A30" s="54">
         <v>1000</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="60" cm="1">
+      <c r="B30" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="59" cm="1">
         <f t="array" ref="E30">_xldudf_BA_ACCOUNTDESCRIPTION(File0, A30,B30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="60"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="A32" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="60" t="e" cm="1">
+      <c r="E33" s="59" t="e" cm="1">
         <f t="array" ref="E33">_xldudf_BA_AMOUNT(File0, "1000")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="60" t="e" cm="1">
+      <c r="E34" s="59" t="e" cm="1">
         <f t="array" ref="E34">_xldudf_BA_AMOUNT(File0, "1000", "2024-01-01/2024-12-31")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55">
+      <c r="A35" s="54">
         <v>1000</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="58">
         <v>45292</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="57">
         <v>45657</v>
       </c>
-      <c r="D35" s="57" t="str" cm="1">
+      <c r="D35" s="56" t="str" cm="1">
         <f t="array" ref="D35">_xldudf_BA_CREATEPERIOD(B35,C35)</f>
         <v>2024-01-01/2024-12-31</v>
       </c>
-      <c r="E35" s="60" t="e" cm="1">
+      <c r="E35" s="59" t="e" cm="1">
         <f t="array" ref="E35">_xldudf_BA_AMOUNT(File0, A35, D35)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="55">
+      <c r="A36" s="54">
         <v>1000</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="60" t="e" cm="1">
+      <c r="E36" s="59" t="e" cm="1">
         <f t="array" ref="E36">_xldudf_BA_AMOUNT(File0, A36,B36)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="60"/>
+      <c r="E37" s="59"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
+      <c r="A38" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="60" t="e" cm="1">
+      <c r="E39" s="59" t="e" cm="1">
         <f t="array" ref="E39">_xldudf_BA_BALANCE(File0, "1000", "2024-01-01/2024-12-31")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="55">
+      <c r="A40" s="54">
         <v>1000</v>
       </c>
-      <c r="E40" s="60" t="e" cm="1">
+      <c r="E40" s="59" t="e" cm="1">
         <f t="array" ref="E40">_xldudf_BA_BALANCE(File0, A40)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="55">
+      <c r="A41" s="54">
         <v>1000</v>
       </c>
-      <c r="B41" s="59">
+      <c r="B41" s="58">
         <v>45292</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="57">
         <v>45657</v>
       </c>
-      <c r="D41" s="58" t="str" cm="1">
+      <c r="D41" s="57" t="str" cm="1">
         <f t="array" ref="D41">_xldudf_BA_CREATEPERIOD(B41,C41)</f>
         <v>2024-01-01/2024-12-31</v>
       </c>
-      <c r="E41" s="60" t="e" cm="1">
+      <c r="E41" s="59" t="e" cm="1">
         <f t="array" ref="E41">_xldudf_BA_BALANCE(File0,A41,D41)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="59">
+      <c r="A42" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="58">
         <v>45292</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="57">
         <v>45657</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="60" t="e" cm="1">
+      <c r="D42" s="57"/>
+      <c r="E42" s="59" t="e" cm="1">
         <f t="array" ref="E42">_xldudf_BA_BALANCE(File0, A42,_xldudf_BA_CREATEPERIOD(B42,C42))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="59" t="e" cm="1">
+        <f t="array" ref="E43">_xldudf_BA_BALANCE(File0, A43)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="59" t="e" cm="1">
+        <f t="array" ref="E44">_xldudf_BA_BALANCE(File0, A44)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="59" t="e" cm="1">
+        <f t="array" ref="E45">_xldudf_BA_BALANCE(File0, A45)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="59"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="59" t="e" cm="1">
+        <f t="array" ref="E48">_xldudf_BA_OPENING(File0, "1000")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="59" t="e" cm="1">
+        <f t="array" ref="E49">_xldudf_BA_OPENING(File0, A49, B49)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="59" t="e" cm="1">
+        <f t="array" ref="E50">_xldudf_BA_OPENING(File0, A50, B50)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="59"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="59" t="e" cm="1">
+        <f t="array" ref="E53">_xldudf_BA_TOTAL(File0, "4100")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="59" t="e" cm="1">
+        <f t="array" ref="E54">_xldudf_BA_TOTAL(File0, A54, B54)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="59" t="e" cm="1">
+        <f t="array" ref="E55">_xldudf_BA_TOTAL(File0, A55, B55)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="59"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="59" t="e" cm="1">
+        <f t="array" ref="E58">_xldudf_BA_INTEREST(File0, "1000", "5")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B59" s="54">
+        <v>5</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="55"/>
+      <c r="E59" s="59" t="e" cm="1">
+        <f t="array" ref="E59">_xldudf_BA_INTEREST(File0,A59,B59,C59)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="54">
+        <v>2000</v>
+      </c>
+      <c r="B60" s="54">
+        <v>-5</v>
+      </c>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="59" t="e" cm="1">
+        <f t="array" ref="E60">_xldudf_BA_INTEREST(File0,A60,B60)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="54">
+        <v>2000</v>
+      </c>
+      <c r="B61" s="54">
+        <v>-5</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="55"/>
+      <c r="E61" s="59" t="e" cm="1">
+        <f t="array" ref="E61">_xldudf_BA_INTEREST(File0, A61,B61,C61)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="59"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="59" t="e" cm="1">
+        <f t="array" ref="E64">_xldudf_BA_VATBALANCE(File0, "S10", "taxable")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="59" t="e" cm="1">
+        <f t="array" ref="E65">_xldudf_BA_VATBALANCE(File0,A65,B65)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="59" t="e" cm="1">
+        <f t="array" ref="E66">_xldudf_BA_VATBALANCE(File0, A66, B66)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="59"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="59" cm="1">
+        <f t="array" ref="E69">_xldudf_BA_VATDESCRIPTION(File0, "S10")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="59" cm="1">
+        <f t="array" ref="E70">_xldudf_BA_VATDESCRIPTION(File0,A70,B70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="59"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="59" t="e" cm="1">
+        <f t="array" ref="E73">_xldudf_BA_BUDGETAMOUNT(File0, "1000")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E74" s="59" t="e" cm="1">
+        <f t="array" ref="E74">_xldudf_BA_BUDGETAMOUNT(File0, "1000", "2024-01-01/2024-12-31")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B75" s="58">
+        <v>45292</v>
+      </c>
+      <c r="C75" s="57">
+        <v>45657</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="E75" s="59" t="e" cm="1">
+        <f t="array" ref="E75">_xldudf_BA_BUDGETAMOUNT(File0, A75, _xldudf_BA_CREATEPERIOD(B75,C75))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="59" t="e" cm="1">
+        <f t="array" ref="E76">_xldudf_BA_BUDGETAMOUNT(File0, A76,B76)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E77" s="59"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="60" t="e" cm="1">
-        <f t="array" ref="E43">_xldudf_BA_BALANCE(File0, A43)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="60" t="e" cm="1">
-        <f t="array" ref="E44">_xldudf_BA_BALANCE(File0, A44)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" s="59" t="e" cm="1">
+        <f t="array" ref="E79">_xldudf_BA_BUDGETBALANCE(File0, "1000", "2024-01-01/2024-12-31")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="54">
+        <v>1000</v>
+      </c>
+      <c r="E80" s="59" t="e" cm="1">
+        <f t="array" ref="E80">_xldudf_BA_BUDGETBALANCE(File0, A80)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B81" s="58">
+        <v>45292</v>
+      </c>
+      <c r="C81" s="57">
+        <v>45657</v>
+      </c>
+      <c r="D81" s="57"/>
+      <c r="E81" s="59" t="e" cm="1">
+        <f t="array" ref="E81">_xldudf_BA_BUDGETBALANCE(File0, A81, _xldudf_BA_CREATEPERIOD(B81,C81))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="59" t="e" cm="1">
+        <f t="array" ref="E82">_xldudf_BA_BUDGETBALANCE(File0, A82,_xldudf_BA_CREATEPERIOD(B81,C81))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="59" t="e" cm="1">
+        <f t="array" ref="E83">_xldudf_BA_BUDGETBALANCE(File0, A83)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="59" t="e" cm="1">
+        <f t="array" ref="E84">_xldudf_BA_BUDGETBALANCE(File0, A84)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="59" t="e" cm="1">
+        <f t="array" ref="E85">_xldudf_BA_BUDGETBALANCE(File0, A85)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="59"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="60" t="e" cm="1">
-        <f t="array" ref="E45">_xldudf_BA_BALANCE(File0, A45)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E46" s="60"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="63" t="s">
+      <c r="B87" s="62"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E88" s="59" t="e" cm="1">
+        <f t="array" ref="E88">_xldudf_BA_BUDGETOPENING(File0, "1000")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="59" t="e" cm="1">
+        <f t="array" ref="E89">_xldudf_BA_BUDGETOPENING(File0, A89, B89)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="59" t="e" cm="1">
+        <f t="array" ref="E90">_xldudf_BA_BUDGETOPENING(File0, A90, B90)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="59"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="60" t="e" cm="1">
-        <f t="array" ref="E48">_xldudf_BA_OPENING(File0, "1000")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="55">
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E93" s="59" t="e" cm="1">
+        <f t="array" ref="E93">_xldudf_BA_BUDGETTOTAL(File0, "4100")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="59" t="e" cm="1">
+        <f t="array" ref="E94">_xldudf_BA_BUDGETTOTAL(File0, A94, B94)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="59" t="e" cm="1">
+        <f t="array" ref="E95">_xldudf_BA_BUDGETTOTAL(File0, A95, B95)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96" s="59"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="62"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="59" t="e" cm="1">
+        <f t="array" ref="E98">_xldudf_BA_BUDGETINTEREST(File0, "1000", "5")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="54">
         <v>1000</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B99" s="54">
+        <v>5</v>
+      </c>
+      <c r="C99" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="60" t="e" cm="1">
-        <f t="array" ref="E49">_xldudf_BA_OPENING(File0, A49, B49)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="60" t="e" cm="1">
-        <f t="array" ref="E50">_xldudf_BA_OPENING(File0, A50, B50)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="60"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="60" t="e" cm="1">
-        <f t="array" ref="E53">_xldudf_BA_TOTAL(File0, "4100")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="55" t="s">
+      <c r="D99" s="55"/>
+      <c r="E99" s="59" t="e" cm="1">
+        <f t="array" ref="E99">_xldudf_BA_BUDGETINTEREST(File0,A99,B99,C99)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="54">
+        <v>2000</v>
+      </c>
+      <c r="B100" s="54">
+        <v>-5</v>
+      </c>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="59" t="e" cm="1">
+        <f t="array" ref="E100">_xldudf_BA_BUDGETINTEREST(File0,A100,B100)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="54">
+        <v>2000</v>
+      </c>
+      <c r="B101" s="54">
+        <v>-5</v>
+      </c>
+      <c r="C101" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="60" t="e" cm="1">
-        <f t="array" ref="E54">_xldudf_BA_TOTAL(File0, A54, B54)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="60" t="e" cm="1">
-        <f t="array" ref="E55">_xldudf_BA_TOTAL(File0, A55, B55)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E56" s="60"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="63" t="s">
+      <c r="D101" s="55"/>
+      <c r="E101" s="59" t="e" cm="1">
+        <f t="array" ref="E101">_xldudf_BA_BUDGETINTEREST(File0, A101,B101,C101)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="59"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E58" s="60" t="e" cm="1">
-        <f t="array" ref="E58">_xldudf_BA_INTEREST(File0, "1000", "5")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B59" s="55">
-        <v>5</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="60" t="e" cm="1">
-        <f t="array" ref="E59">_xldudf_BA_INTEREST(File0,A59,B59,C59)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="55">
-        <v>2000</v>
-      </c>
-      <c r="B60" s="55">
-        <v>-5</v>
-      </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="60" t="e" cm="1">
-        <f t="array" ref="E60">_xldudf_BA_INTEREST(File0,A60,B60)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="55">
-        <v>2000</v>
-      </c>
-      <c r="B61" s="55">
-        <v>-5</v>
-      </c>
-      <c r="C61" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="60" t="e" cm="1">
-        <f t="array" ref="E61">_xldudf_BA_INTEREST(File0, A61,B61,C61)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="60"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="63" t="s">
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E104" s="59" cm="1">
+        <f t="array" ref="E104">_xldudf_BA_CELLVALUE(File0, "Accounts", 2, "Description")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E64" s="60" t="e" cm="1">
-        <f t="array" ref="E64">_xldudf_BA_VATBALANCE(File0, "S10", "taxable")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="55" t="s">
+      <c r="C105" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="55"/>
+      <c r="E105" s="59" cm="1">
+        <f t="array" ref="E105">_xldudf_BA_CELLVALUE(File0, A105,B105,C105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="60" t="e" cm="1">
-        <f t="array" ref="E65">_xldudf_BA_VATBALANCE(File0,A65,B65)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="55" t="s">
+      <c r="D106" s="55"/>
+      <c r="E106" s="59" cm="1">
+        <f t="array" ref="E106">_xldudf_BA_CELLVALUE(File0, A106,B106,C106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E107" s="59"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E109" s="59" t="e" cm="1">
+        <f t="array" ref="E109">_xldudf_BA_CELLAMOUNT(File0, "Accounts", 3, "Opening")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="55"/>
+      <c r="E110" s="59" t="e" cm="1">
+        <f t="array" ref="E110">_xldudf_BA_CELLAMOUNT(File0,A110,B110,C110)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="60" t="e" cm="1">
-        <f t="array" ref="E66">_xldudf_BA_VATBALANCE(File0, A66, B66)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="60"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="60" cm="1">
-        <f t="array" ref="E69">_xldudf_BA_VATDESCRIPTION(File0, "S10")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="60" cm="1">
-        <f t="array" ref="E70">_xldudf_BA_VATDESCRIPTION(File0,A70,B70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="60"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E73" s="60" t="e" cm="1">
-        <f t="array" ref="E73">_xldudf_BA_BUDGETAMOUNT(File0, "1000")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="60" t="e" cm="1">
-        <f t="array" ref="E74">_xldudf_BA_BUDGETAMOUNT(File0, "1000", "2024-01-01/2024-12-31")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B75" s="59">
-        <v>45292</v>
-      </c>
-      <c r="C75" s="58">
-        <v>45657</v>
-      </c>
-      <c r="D75" s="58"/>
-      <c r="E75" s="60" t="e" cm="1">
-        <f t="array" ref="E75">_xldudf_BA_BUDGETAMOUNT(File0, A75, _xldudf_BA_CREATEPERIOD(B75,C75))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B76" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="60" t="e" cm="1">
-        <f t="array" ref="E76">_xldudf_BA_BUDGETAMOUNT(File0, A76,B76)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E77" s="60"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E79" s="60" t="e" cm="1">
-        <f t="array" ref="E79">_xldudf_BA_BUDGETBALANCE(File0, "1000", "2024-01-01/2024-12-31")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="55">
-        <v>1000</v>
-      </c>
-      <c r="E80" s="60" t="e" cm="1">
-        <f t="array" ref="E80">_xldudf_BA_BUDGETBALANCE(File0, A80)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B81" s="59">
-        <v>45292</v>
-      </c>
-      <c r="C81" s="58">
-        <v>45657</v>
-      </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="60" t="e" cm="1">
-        <f t="array" ref="E81">_xldudf_BA_BUDGETBALANCE(File0, A81, _xldudf_BA_CREATEPERIOD(B81,C81))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="60" t="e" cm="1">
-        <f t="array" ref="E82">_xldudf_BA_BUDGETBALANCE(File0, A82,_xldudf_BA_CREATEPERIOD(B81,C81))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="60" t="e" cm="1">
-        <f t="array" ref="E83">_xldudf_BA_BUDGETBALANCE(File0, A83)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E84" s="60" t="e" cm="1">
-        <f t="array" ref="E84">_xldudf_BA_BUDGETBALANCE(File0, A84)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E85" s="60" t="e" cm="1">
-        <f t="array" ref="E85">_xldudf_BA_BUDGETBALANCE(File0, A85)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E86" s="60"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E88" s="60" t="e" cm="1">
-        <f t="array" ref="E88">_xldudf_BA_BUDGETOPENING(File0, "1000")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B89" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89" s="60" t="e" cm="1">
-        <f t="array" ref="E89">_xldudf_BA_BUDGETOPENING(File0, A89, B89)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B90" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E90" s="60" t="e" cm="1">
-        <f t="array" ref="E90">_xldudf_BA_BUDGETOPENING(File0, A90, B90)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E91" s="60"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E93" s="60" t="e" cm="1">
-        <f t="array" ref="E93">_xldudf_BA_BUDGETTOTAL(File0, "4100")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="60" t="e" cm="1">
-        <f t="array" ref="E94">_xldudf_BA_BUDGETTOTAL(File0, A94, B94)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="60" t="e" cm="1">
-        <f t="array" ref="E95">_xldudf_BA_BUDGETTOTAL(File0, A95, B95)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E96" s="60"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="63"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E98" s="60" t="e" cm="1">
-        <f t="array" ref="E98">_xldudf_BA_BUDGETINTEREST(File0, "1000", "5")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="55">
-        <v>1000</v>
-      </c>
-      <c r="B99" s="55">
-        <v>5</v>
-      </c>
-      <c r="C99" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="60" t="e" cm="1">
-        <f t="array" ref="E99">_xldudf_BA_BUDGETINTEREST(File0,A99,B99,C99)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="55">
-        <v>2000</v>
-      </c>
-      <c r="B100" s="55">
-        <v>-5</v>
-      </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="60" t="e" cm="1">
-        <f t="array" ref="E100">_xldudf_BA_BUDGETINTEREST(File0,A100,B100)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="55">
-        <v>2000</v>
-      </c>
-      <c r="B101" s="55">
-        <v>-5</v>
-      </c>
-      <c r="C101" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="56"/>
-      <c r="E101" s="60" t="e" cm="1">
-        <f t="array" ref="E101">_xldudf_BA_BUDGETINTEREST(File0, A101,B101,C101)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E102" s="60"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B103" s="63"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E104" s="60" cm="1">
-        <f t="array" ref="E104">_xldudf_BA_CELLVALUE(File0, "Accounts", 2, "Description")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C105" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D105" s="56"/>
-      <c r="E105" s="60" cm="1">
-        <f t="array" ref="E105">_xldudf_BA_CELLVALUE(File0, A105,B105,C105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B106" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="56"/>
-      <c r="E106" s="60" cm="1">
-        <f t="array" ref="E106">_xldudf_BA_CELLVALUE(File0, A106,B106,C106)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E107" s="60"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E109" s="60" t="e" cm="1">
-        <f t="array" ref="E109">_xldudf_BA_CELLAMOUNT(File0, "Accounts", 3, "Opening")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D110" s="56"/>
-      <c r="E110" s="60" t="e" cm="1">
-        <f t="array" ref="E110">_xldudf_BA_CELLAMOUNT(File0,A110,B110,C110)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C111" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="56"/>
-      <c r="E111" s="60" t="e" cm="1">
+      <c r="C111" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="55"/>
+      <c r="E111" s="59" t="e" cm="1">
         <f t="array" ref="E111">_xldudf_BA_CELLAMOUNT(File0,A111,B111,C111)</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A97:E97"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A10:E10"/>
@@ -2582,6 +2399,14 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A97:E97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2603,41 +2428,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" cm="1">
+      <c r="B2" s="10" cm="1">
         <f t="array" ref="B2">_xldudf_BA_INFO( File0,"Base","HeaderLeft")</f>
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" cm="1">
+      <c r="B3" s="10" cm="1">
         <f t="array" ref="B3">_xldudf_BA_INFO( File0,"Base","HeaderRight")</f>
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="24" t="e" cm="1">
+      <c r="B5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="23" t="e" cm="1">
         <f t="array" ref="C5">_xldudf_BA_INFO(File0, "AccountingDataBase","ClosureDate")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="25" t="e" cm="1">
+      <c r="D5" s="24" t="e" cm="1">
         <f t="array" ref="D5">_xldudf_BA_INFO( File1,"AccountingDataBase","ClosureDate")</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="14" cm="1">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" cm="1">
         <f t="array" ref="B6">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A6)</f>
         <v>0</v>
       </c>
@@ -2645,16 +2470,16 @@
         <f t="array" ref="C6">_xldudf_BA_AMOUNT(File0,$A6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D6" s="15" t="e" cm="1">
+      <c r="D6" s="14" t="e" cm="1">
         <f t="array" ref="D6">_xldudf_BA_AMOUNT(File1,$A6)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="14" cm="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" cm="1">
         <f t="array" ref="B7">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A7)</f>
         <v>0</v>
       </c>
@@ -2662,16 +2487,16 @@
         <f t="array" ref="C7">_xldudf_BA_AMOUNT(File0,$A7)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="15" t="e" cm="1">
+      <c r="D7" s="14" t="e" cm="1">
         <f t="array" ref="D7">_xldudf_BA_AMOUNT(File1,$A7)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="14" cm="1">
+        <v>26</v>
+      </c>
+      <c r="B8" s="13" cm="1">
         <f t="array" ref="B8">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A8)</f>
         <v>0</v>
       </c>
@@ -2679,16 +2504,16 @@
         <f t="array" ref="C8">_xldudf_BA_AMOUNT(File0,$A8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="15" t="e" cm="1">
+      <c r="D8" s="14" t="e" cm="1">
         <f t="array" ref="D8">_xldudf_BA_AMOUNT(File1,$A8)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="14" cm="1">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13" cm="1">
         <f t="array" ref="B9">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A9)</f>
         <v>0</v>
       </c>
@@ -2696,16 +2521,16 @@
         <f t="array" ref="C9">_xldudf_BA_AMOUNT(File0,$A9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="15" t="e" cm="1">
+      <c r="D9" s="14" t="e" cm="1">
         <f t="array" ref="D9">_xldudf_BA_AMOUNT(File1,$A9)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="14" cm="1">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" cm="1">
         <f t="array" ref="B10">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A10)</f>
         <v>0</v>
       </c>
@@ -2713,16 +2538,16 @@
         <f t="array" ref="C10">_xldudf_BA_AMOUNT(File0,$A10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="15" t="e" cm="1">
+      <c r="D10" s="14" t="e" cm="1">
         <f t="array" ref="D10">_xldudf_BA_AMOUNT(File1,$A10)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="14" cm="1">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13" cm="1">
         <f t="array" ref="B11">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A11)</f>
         <v>0</v>
       </c>
@@ -2730,16 +2555,16 @@
         <f t="array" ref="C11">_xldudf_BA_AMOUNT(File0,$A11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="15" t="e" cm="1">
+      <c r="D11" s="14" t="e" cm="1">
         <f t="array" ref="D11">_xldudf_BA_AMOUNT(File1,$A11)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="14" cm="1">
+        <v>30</v>
+      </c>
+      <c r="B12" s="13" cm="1">
         <f t="array" ref="B12">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A12)</f>
         <v>0</v>
       </c>
@@ -2747,16 +2572,16 @@
         <f t="array" ref="C12">_xldudf_BA_AMOUNT(File0,$A12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="15" t="e" cm="1">
+      <c r="D12" s="14" t="e" cm="1">
         <f t="array" ref="D12">_xldudf_BA_AMOUNT(File1,$A12)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="14" cm="1">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13" cm="1">
         <f t="array" ref="B13">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A13)</f>
         <v>0</v>
       </c>
@@ -2764,16 +2589,16 @@
         <f t="array" ref="C13">_xldudf_BA_AMOUNT(File0,$A13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="15" t="e" cm="1">
+      <c r="D13" s="14" t="e" cm="1">
         <f t="array" ref="D13">_xldudf_BA_AMOUNT(File1,$A13)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="14" cm="1">
+        <v>31</v>
+      </c>
+      <c r="B14" s="13" cm="1">
         <f t="array" ref="B14">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A14)</f>
         <v>0</v>
       </c>
@@ -2781,7 +2606,7 @@
         <f t="array" ref="C14">_xldudf_BA_AMOUNT(File0,$A14)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="15" t="e" cm="1">
+      <c r="D14" s="14" t="e" cm="1">
         <f t="array" ref="D14">_xldudf_BA_AMOUNT(File1,$A14)</f>
         <v>#VALUE!</v>
       </c>
@@ -2790,30 +2615,30 @@
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="16" cm="1">
+      <c r="B15" s="15" cm="1">
         <f t="array" ref="B15">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A15)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="27" t="e" cm="1">
+      <c r="C15" s="26" t="e" cm="1">
         <f t="array" ref="C15">_xldudf_BA_AMOUNT(File0,$A15)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="28" t="e" cm="1">
+      <c r="D15" s="27" t="e" cm="1">
         <f t="array" ref="D15">_xldudf_BA_AMOUNT(File1,$A15)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="14" cm="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="13" cm="1">
         <f t="array" ref="B17">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A17)</f>
         <v>0</v>
       </c>
@@ -2821,16 +2646,16 @@
         <f t="array" ref="C17">_xldudf_BA_AMOUNT(File0,$A17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="15" t="e" cm="1">
+      <c r="D17" s="14" t="e" cm="1">
         <f t="array" ref="D17">_xldudf_BA_AMOUNT(File1,$A17)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="14" cm="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13" cm="1">
         <f t="array" ref="B18">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A18)</f>
         <v>0</v>
       </c>
@@ -2838,16 +2663,16 @@
         <f t="array" ref="C18">_xldudf_BA_AMOUNT(File0,$A18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="15" t="e" cm="1">
+      <c r="D18" s="14" t="e" cm="1">
         <f t="array" ref="D18">_xldudf_BA_AMOUNT(File1,$A18)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="14" cm="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13" cm="1">
         <f t="array" ref="B19">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A19)</f>
         <v>0</v>
       </c>
@@ -2855,24 +2680,24 @@
         <f t="array" ref="C19">_xldudf_BA_AMOUNT(File0,$A19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="21" t="e" cm="1">
+      <c r="D19" s="20" t="e" cm="1">
         <f t="array" ref="D19">_xldudf_BA_AMOUNT(File1,$A19)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="16" cm="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15" cm="1">
         <f t="array" ref="B20">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A20)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="27" t="e" cm="1">
+      <c r="C20" s="26" t="e" cm="1">
         <f t="array" ref="C20">_xldudf_BA_AMOUNT(File0,$A20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="28" t="e" cm="1">
+      <c r="D20" s="27" t="e" cm="1">
         <f t="array" ref="D20">_xldudf_BA_AMOUNT(File1,$A20)</f>
         <v>#VALUE!</v>
       </c>
@@ -2880,14 +2705,14 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -2895,13 +2720,13 @@
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="24" t="e" cm="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="23" t="e" cm="1">
         <f t="array" ref="C24">_xldudf_BA_INFO(File0,"AccountingDataBase","ClosureDate")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="25" t="e" cm="1">
+      <c r="D24" s="24" t="e" cm="1">
         <f t="array" ref="D24">_xldudf_BA_INFO( File1,"AccountingDataBase","ClosureDate")</f>
         <v>#VALUE!</v>
       </c>
@@ -2910,47 +2735,47 @@
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="16" cm="1">
+      <c r="B25" s="15" cm="1">
         <f t="array" ref="B25">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A25)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="17" t="e" cm="1">
+      <c r="C25" s="16" t="e" cm="1">
         <f t="array" ref="C25">_xldudf_BA_AMOUNT(File0,$A25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="20" t="e" cm="1">
+      <c r="D25" s="19" t="e" cm="1">
         <f t="array" ref="D25">_xldudf_BA_AMOUNT(File1,$A25)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="16" cm="1">
+        <v>36</v>
+      </c>
+      <c r="B27" s="15" cm="1">
         <f t="array" ref="B27">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A27)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="17" t="e" cm="1">
+      <c r="C27" s="16" t="e" cm="1">
         <f t="array" ref="C27">_xldudf_BA_AMOUNT(File0,$A27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="20" t="e" cm="1">
+      <c r="D27" s="19" t="e" cm="1">
         <f t="array" ref="D27">_xldudf_BA_AMOUNT(File1,$A27)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="14" cm="1">
+        <v>37</v>
+      </c>
+      <c r="B28" s="13" cm="1">
         <f t="array" ref="B28">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A28)</f>
         <v>0</v>
       </c>
@@ -2958,16 +2783,16 @@
         <f t="array" ref="C28">_xldudf_BA_AMOUNT(File0,$A28)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="15" t="e" cm="1">
+      <c r="D28" s="14" t="e" cm="1">
         <f t="array" ref="D28">_xldudf_BA_AMOUNT(File1,$A28)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="14" cm="1">
+        <v>38</v>
+      </c>
+      <c r="B29" s="13" cm="1">
         <f t="array" ref="B29">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A29)</f>
         <v>0</v>
       </c>
@@ -2975,16 +2800,16 @@
         <f t="array" ref="C29">_xldudf_BA_AMOUNT(File0,$A29)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="15" t="e" cm="1">
+      <c r="D29" s="14" t="e" cm="1">
         <f t="array" ref="D29">_xldudf_BA_AMOUNT(File1,$A29)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="14" cm="1">
+        <v>39</v>
+      </c>
+      <c r="B30" s="13" cm="1">
         <f t="array" ref="B30">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A30)</f>
         <v>0</v>
       </c>
@@ -2992,33 +2817,33 @@
         <f t="array" ref="C30">_xldudf_BA_AMOUNT(File0,$A30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="21" t="e" cm="1">
+      <c r="D30" s="20" t="e" cm="1">
         <f t="array" ref="D30">_xldudf_BA_AMOUNT(File1,$A30)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="16" cm="1">
+        <v>40</v>
+      </c>
+      <c r="B31" s="15" cm="1">
         <f t="array" ref="B31">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A31)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="17" t="e" cm="1">
+      <c r="C31" s="16" t="e" cm="1">
         <f t="array" ref="C31">_xldudf_BA_AMOUNT(File0,$A31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="20" t="e" cm="1">
+      <c r="D31" s="19" t="e" cm="1">
         <f t="array" ref="D31">_xldudf_BA_AMOUNT(File1,$A31)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="14" cm="1">
+        <v>41</v>
+      </c>
+      <c r="B32" s="13" cm="1">
         <f t="array" ref="B32">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A32)</f>
         <v>0</v>
       </c>
@@ -3026,16 +2851,16 @@
         <f t="array" ref="C32">_xldudf_BA_AMOUNT(File0,$A32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D32" s="15" t="e" cm="1">
+      <c r="D32" s="14" t="e" cm="1">
         <f t="array" ref="D32">_xldudf_BA_AMOUNT(File1,$A32)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="14" cm="1">
+        <v>42</v>
+      </c>
+      <c r="B33" s="13" cm="1">
         <f t="array" ref="B33">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A33)</f>
         <v>0</v>
       </c>
@@ -3043,7 +2868,7 @@
         <f t="array" ref="C33">_xldudf_BA_AMOUNT(File0,$A33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" s="21" t="e" cm="1">
+      <c r="D33" s="20" t="e" cm="1">
         <f t="array" ref="D33">_xldudf_BA_AMOUNT(File1,$A33)</f>
         <v>#VALUE!</v>
       </c>
@@ -3052,32 +2877,32 @@
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="16" cm="1">
+      <c r="B34" s="15" cm="1">
         <f t="array" ref="B34">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A34)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="17" t="e" cm="1">
+      <c r="C34" s="16" t="e" cm="1">
         <f t="array" ref="C34">_xldudf_BA_AMOUNT(File0,$A34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="20" t="e" cm="1">
+      <c r="D34" s="19" t="e" cm="1">
         <f t="array" ref="D34">_xldudf_BA_AMOUNT(File1,$A34)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="16" cm="1">
+        <v>43</v>
+      </c>
+      <c r="B35" s="15" cm="1">
         <f t="array" ref="B35">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A35)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="17" t="e" cm="1">
+      <c r="C35" s="16" t="e" cm="1">
         <f t="array" ref="C35">_xldudf_BA_AMOUNT(File0,$A35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="20" t="e" cm="1">
+      <c r="D35" s="19" t="e" cm="1">
         <f t="array" ref="D35">_xldudf_BA_AMOUNT(File1,$A35)</f>
         <v>#VALUE!</v>
       </c>
@@ -3104,402 +2929,402 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" cm="1">
+      <c r="A2" s="10" cm="1">
         <f t="array" ref="A2">_xldudf_BA_INFO(File0, "Base","HeaderLeft")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="29" t="e" cm="1">
+        <v>45</v>
+      </c>
+      <c r="B3" s="28" t="e" cm="1">
         <f t="array" ref="B3">_xldudf_BA_STARTPERIOD(File0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="29" t="e" cm="1">
+        <v>46</v>
+      </c>
+      <c r="B4" s="28" t="e" cm="1">
         <f t="array" ref="B4">_xldudf_BA_ENDPERIOD(File0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="29"/>
+        <v>44</v>
+      </c>
+      <c r="B5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>63</v>
+      <c r="A7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="35">
         <f>SUM(D8:G8)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>0.2</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>0.5</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39">
+      <c r="F8" s="37"/>
+      <c r="G8" s="38">
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>3220</v>
       </c>
-      <c r="B9" s="40" cm="1">
+      <c r="B9" s="39" cm="1">
         <f t="array" ref="B9">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A9)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="41" t="e" cm="1">
+      <c r="C9" s="40" t="e" cm="1">
         <f t="array" ref="C9">_xldudf_BA_AMOUNT(File0,$A9)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="42" t="e">
+      <c r="D9" s="41" t="e">
         <f>$C9*D$8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="42" t="e">
+      <c r="E9" s="41" t="e">
         <f t="shared" ref="E9:G16" si="0">$C9*E$8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F9" s="42" t="e">
+      <c r="F9" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="43" t="e">
+      <c r="G9" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="39">
         <v>3230</v>
       </c>
-      <c r="B10" s="40" cm="1">
+      <c r="B10" s="39" cm="1">
         <f t="array" ref="B10">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A10)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="41" t="e" cm="1">
+      <c r="C10" s="40" t="e" cm="1">
         <f t="array" ref="C10">_xldudf_BA_AMOUNT(File0,$A10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="42" t="e">
+      <c r="D10" s="41" t="e">
         <f t="shared" ref="D10:D16" si="1">$C10*D$8</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E10" s="42" t="e">
+      <c r="E10" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="42" t="e">
+      <c r="F10" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="43" t="e">
+      <c r="G10" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <v>3240</v>
       </c>
-      <c r="B11" s="40" cm="1">
+      <c r="B11" s="39" cm="1">
         <f t="array" ref="B11">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A11)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="41" t="e" cm="1">
+      <c r="C11" s="40" t="e" cm="1">
         <f t="array" ref="C11">_xldudf_BA_AMOUNT(File0,$A11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="42" t="e">
+      <c r="D11" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E11" s="42" t="e">
+      <c r="E11" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="42" t="e">
+      <c r="F11" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="43" t="e">
+      <c r="G11" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="39">
         <v>3250</v>
       </c>
-      <c r="B12" s="40" cm="1">
+      <c r="B12" s="39" cm="1">
         <f t="array" ref="B12">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A12)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="41" t="e" cm="1">
+      <c r="C12" s="40" t="e" cm="1">
         <f t="array" ref="C12">_xldudf_BA_AMOUNT(File0,$A12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="42" t="e">
+      <c r="D12" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E12" s="42" t="e">
+      <c r="E12" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="42" t="e">
+      <c r="F12" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="43" t="e">
+      <c r="G12" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="39">
         <v>3260</v>
       </c>
-      <c r="B13" s="40" cm="1">
+      <c r="B13" s="39" cm="1">
         <f t="array" ref="B13">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A13)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="41" t="e" cm="1">
+      <c r="C13" s="40" t="e" cm="1">
         <f t="array" ref="C13">_xldudf_BA_AMOUNT(File0,$A13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="42" t="e">
+      <c r="D13" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E13" s="42" t="e">
+      <c r="E13" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="42" t="e">
+      <c r="F13" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="43" t="e">
+      <c r="G13" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <v>3270</v>
       </c>
-      <c r="B14" s="40" cm="1">
+      <c r="B14" s="39" cm="1">
         <f t="array" ref="B14">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A14)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="41" t="e" cm="1">
+      <c r="C14" s="40" t="e" cm="1">
         <f t="array" ref="C14">_xldudf_BA_AMOUNT(File0,$A14)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="42" t="e">
+      <c r="D14" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E14" s="42" t="e">
+      <c r="E14" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="42" t="e">
+      <c r="F14" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G14" s="43" t="e">
+      <c r="G14" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <v>3280</v>
       </c>
-      <c r="B15" s="40" cm="1">
+      <c r="B15" s="39" cm="1">
         <f t="array" ref="B15">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A15)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="41" t="e" cm="1">
+      <c r="C15" s="40" t="e" cm="1">
         <f t="array" ref="C15">_xldudf_BA_AMOUNT(File0,$A15)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="42" t="e">
+      <c r="D15" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="42" t="e">
+      <c r="E15" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="42" t="e">
+      <c r="F15" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="43" t="e">
+      <c r="G15" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="39">
         <v>3290</v>
       </c>
-      <c r="B16" s="40" cm="1">
+      <c r="B16" s="39" cm="1">
         <f t="array" ref="B16">_xldudf_BA_ACCOUNTDESCRIPTION(File0,A16)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="41" t="e" cm="1">
+      <c r="C16" s="40" t="e" cm="1">
         <f t="array" ref="C16">_xldudf_BA_AMOUNT(File0,$A16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="42" t="e">
+      <c r="D16" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E16" s="42" t="e">
+      <c r="E16" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F16" s="42" t="e">
+      <c r="F16" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" s="43" t="e">
+      <c r="G16" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="45" t="e">
+      <c r="A17" s="34"/>
+      <c r="B17" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="44" t="e">
         <f>SUM(C9:C16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="45" t="e">
+      <c r="D17" s="44" t="e">
         <f>SUM(D9:D16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E17" s="45" t="e">
+      <c r="E17" s="44" t="e">
         <f>SUM(E9:E16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" s="45" t="e">
+      <c r="F17" s="44" t="e">
         <f>SUM(F9:F16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="20" t="e">
+      <c r="G17" s="19" t="e">
         <f>SUM(G9:G16)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="41">
+      <c r="A18" s="45"/>
+      <c r="B18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="40">
         <f>SUM(D18:G18)</f>
         <v>300</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>100</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <v>100</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48">
+      <c r="F18" s="46"/>
+      <c r="G18" s="47">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="45" t="e">
+      <c r="A19" s="34"/>
+      <c r="B19" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="44" t="e">
         <f>C17-C18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="45" t="e">
+      <c r="D19" s="44" t="e">
         <f>D17-D18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E19" s="45" t="e">
+      <c r="E19" s="44" t="e">
         <f>E17-E18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F19" s="45" t="e">
+      <c r="F19" s="44" t="e">
         <f>F17-F18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="45" t="e">
+      <c r="G19" s="44" t="e">
         <f>G17-G18</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="49" t="e">
+        <v>55</v>
+      </c>
+      <c r="C20" s="48" t="e">
         <f>C17-SUM(D17:G17)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3530,454 +3355,454 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="29" t="e" cm="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="28" t="e" cm="1">
         <f t="array" ref="B2">_xldudf_BA_STARTPERIOD(File0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="29" t="e" cm="1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="28" t="e" cm="1">
         <f t="array" ref="B3">_xldudf_BA_ENDPERIOD(File0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="64" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="50" t="e" cm="1">
+        <f t="array" ref="C9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;C$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="50" t="e" cm="1">
+        <f t="array" ref="D9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;D$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="50" t="e" cm="1">
+        <f t="array" ref="E9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;E$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="50" t="e" cm="1">
+        <f t="array" ref="F9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;F$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="44" t="e">
+        <f>SUM(C9:F9)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="50" t="e" cm="1">
+        <f t="array" ref="C10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;C$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="50" t="e" cm="1">
+        <f t="array" ref="D10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;D$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="50" t="e" cm="1">
+        <f t="array" ref="E10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;E$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="50" t="e" cm="1">
+        <f t="array" ref="F10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;F$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="44" t="e">
+        <f>SUM(C10:F10)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35" t="s">
+      <c r="B11" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="C11" s="50" t="e" cm="1">
+        <f t="array" ref="C11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;C$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D11" s="50" t="e" cm="1">
+        <f t="array" ref="D11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;D$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="50" t="e" cm="1">
+        <f t="array" ref="E11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;E$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="50" t="e" cm="1">
+        <f t="array" ref="F11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;F$8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="44" t="e">
+        <f>SUM(C11:F11)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="B12" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="51" t="e" cm="1">
-        <f t="array" ref="C9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;C$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D9" s="51" t="e" cm="1">
-        <f t="array" ref="D9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;D$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="51" t="e" cm="1">
-        <f t="array" ref="E9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;E$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="51" t="e" cm="1">
-        <f t="array" ref="F9">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A9&amp;":"&amp;F$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="45" t="e">
-        <f>SUM(C9:F9)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="51" t="e" cm="1">
-        <f t="array" ref="C10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;C$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="51" t="e" cm="1">
-        <f t="array" ref="D10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;D$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="51" t="e" cm="1">
-        <f t="array" ref="E10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;E$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="51" t="e" cm="1">
-        <f t="array" ref="F10">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A10&amp;":"&amp;F$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="45" t="e">
-        <f>SUM(C10:F10)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="51" t="e" cm="1">
-        <f t="array" ref="C11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;C$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D11" s="51" t="e" cm="1">
-        <f t="array" ref="D11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;D$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="51" t="e" cm="1">
-        <f t="array" ref="E11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;E$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="51" t="e" cm="1">
-        <f t="array" ref="F11">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A11&amp;":"&amp;F$8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="45" t="e">
-        <f>SUM(C11:F11)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="51" t="e" cm="1">
+      <c r="C12" s="50" t="e" cm="1">
         <f t="array" ref="C12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;C$8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="51" t="e" cm="1">
+      <c r="D12" s="50" t="e" cm="1">
         <f t="array" ref="D12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;D$8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E12" s="51" t="e" cm="1">
+      <c r="E12" s="50" t="e" cm="1">
         <f t="array" ref="E12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;E$8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="51" t="e" cm="1">
+      <c r="F12" s="50" t="e" cm="1">
         <f t="array" ref="F12">_xldudf_BA_AMOUNT(File0,$B$5&amp;":"&amp;$A12&amp;":"&amp;F$8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G12" s="45" t="e">
+      <c r="G12" s="44" t="e">
         <f>SUM(C12:F12)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="45" t="e">
+      <c r="A13" s="34"/>
+      <c r="B13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="44" t="e">
         <f>SUM(C9:C12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="45" t="e">
+      <c r="D13" s="44" t="e">
         <f>SUM(D9:D12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E13" s="45" t="e">
+      <c r="E13" s="44" t="e">
         <f>SUM(E9:E12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="45" t="e">
+      <c r="F13" s="44" t="e">
         <f>SUM(F9:F12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="45" t="e">
+      <c r="G13" s="44" t="e">
         <f>SUM(G9:G12)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="64" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="50" t="e" cm="1">
+        <f t="array" ref="C22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;C$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D22" s="50" t="e" cm="1">
+        <f t="array" ref="D22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;D$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="50" t="e" cm="1">
+        <f t="array" ref="E22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;E$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="50" t="e" cm="1">
+        <f t="array" ref="F22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;F$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="44" t="e">
+        <f>SUM(C22:F22)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="50" t="e" cm="1">
+        <f t="array" ref="C23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;C$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D23" s="50" t="e" cm="1">
+        <f t="array" ref="D23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;D$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="50" t="e" cm="1">
+        <f t="array" ref="E23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;E$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="50" t="e" cm="1">
+        <f t="array" ref="F23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;F$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="44" t="e">
+        <f>SUM(C23:F23)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35" t="s">
+      <c r="B24" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="C24" s="50" t="e" cm="1">
+        <f t="array" ref="C24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;C$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D24" s="50" t="e" cm="1">
+        <f t="array" ref="D24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;D$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="50" t="e" cm="1">
+        <f t="array" ref="E24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;E$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="50" t="e" cm="1">
+        <f t="array" ref="F24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;F$21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="44" t="e">
+        <f>SUM(C24:F24)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="B25" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="51" t="e" cm="1">
-        <f t="array" ref="C22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;C$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="51" t="e" cm="1">
-        <f t="array" ref="D22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;D$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E22" s="51" t="e" cm="1">
-        <f t="array" ref="E22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;E$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="51" t="e" cm="1">
-        <f t="array" ref="F22">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A22&amp;":"&amp;F$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" s="45" t="e">
-        <f>SUM(C22:F22)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="51" t="e" cm="1">
-        <f t="array" ref="C23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;C$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="51" t="e" cm="1">
-        <f t="array" ref="D23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;D$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E23" s="51" t="e" cm="1">
-        <f t="array" ref="E23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;E$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="51" t="e" cm="1">
-        <f t="array" ref="F23">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A23&amp;":"&amp;F$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" s="45" t="e">
-        <f>SUM(C23:F23)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="51" t="e" cm="1">
-        <f t="array" ref="C24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;C$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="51" t="e" cm="1">
-        <f t="array" ref="D24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;D$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="51" t="e" cm="1">
-        <f t="array" ref="E24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;E$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="51" t="e" cm="1">
-        <f t="array" ref="F24">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A24&amp;":"&amp;F$21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G24" s="45" t="e">
-        <f>SUM(C24:F24)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="51" t="e" cm="1">
+      <c r="C25" s="50" t="e" cm="1">
         <f t="array" ref="C25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;C$21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="51" t="e" cm="1">
+      <c r="D25" s="50" t="e" cm="1">
         <f t="array" ref="D25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;D$21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="51" t="e" cm="1">
+      <c r="E25" s="50" t="e" cm="1">
         <f t="array" ref="E25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;E$21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="51" t="e" cm="1">
+      <c r="F25" s="50" t="e" cm="1">
         <f t="array" ref="F25">_xldudf_BA_AMOUNT(File0,$B$18&amp;":"&amp;$A25&amp;":"&amp;F$21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G25" s="45" t="e">
+      <c r="G25" s="44" t="e">
         <f>SUM(C25:F25)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="45" t="e">
+      <c r="A26" s="34"/>
+      <c r="B26" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="44" t="e">
         <f>SUM(C22:C25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="45" t="e">
+      <c r="D26" s="44" t="e">
         <f>SUM(D22:D25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E26" s="45" t="e">
+      <c r="E26" s="44" t="e">
         <f>SUM(E22:E25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="45" t="e">
+      <c r="F26" s="44" t="e">
         <f>SUM(F22:F25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G26" s="45" t="e">
+      <c r="G26" s="44" t="e">
         <f>SUM(G22:G25)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="54"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
